--- a/Docs/Iteración 3/MS Project/Seguimiento del Cronograma del Sprint 3.xlsx
+++ b/Docs/Iteración 3/MS Project/Seguimiento del Cronograma del Sprint 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\Universidad\4º AÑO\PGPI-G1.15\Docs\Iteración 3\MS Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38DCCEC0-FE8A-4FC6-8EAE-EC0EA4CF86E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73015F7A-427A-4607-B817-3F22BDE2AB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74EC2089-82C6-4256-B011-2103C23BAEBB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17E43B56-CF80-4EBC-B759-65557F6CE0BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{1937BE5E-4EEB-44A5-8812-D6398E1E1619}" sourceFile="D:\Documents and Settings\PKMACCT\My Documents\Assignment Usage.cub" keepAlive="1" name="Assignment Usage" type="5" refreshedVersion="8">
+  <connection id="1" xr16:uid="{DB6075DC-959A-44F2-97D4-EFB3658053E1}" sourceFile="D:\Documents and Settings\PKMACCT\My Documents\Assignment Usage.cub" keepAlive="1" name="Assignment Usage" type="5" refreshedVersion="8">
     <dbPr connection="Provider=MSOLAP.2;Persist Security Info=True;Data Source=D:\Documents and Settings\PKMACCT\My Documents\Assignment Usage.cub;Client Cache Size=25;Auto Synch Period=10000" command="ProjectReport" commandType="1"/>
-    <olapPr local="1" localConnection="Provider=MSOLAP.8;Persist Security Info=True;Data Source=C:\Users\angel\AppData\Local\Temp\VisualReportsTemporaryData\{d153e9ba-b4ae-ef11-905f-c38c60dbbcf3}\AssignmentTP.cub;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" rowDrillCount="1000" serverFill="0" serverNumberFormat="0" serverFont="0" serverFontColor="0"/>
+    <olapPr local="1" localConnection="Provider=MSOLAP.8;Persist Security Info=True;Data Source=C:\Users\angel\AppData\Local\Temp\VisualReportsTemporaryData\{cab2faa7-3baf-ef11-905f-c38c60dbbcf3}\AssignmentTP.cub;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" rowDrillCount="1000" serverFill="0" serverNumberFormat="0" serverFont="0" serverFontColor="0"/>
   </connection>
 </connections>
 </file>
@@ -375,13 +375,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Informe del trabajo presupuestado del Sprint</a:t>
+              <a:t>Informe del trabajo presupuestado del Sprint 3</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 3</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -563,7 +558,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1ACA-4CE0-961B-C21AF5868877}"/>
+              <c16:uniqueId val="{00000000-DCE1-4EB7-A6D3-4DD8A9F2862C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -666,7 +661,7 @@
                   <c:v>28.916666666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.5</c:v>
+                  <c:v>38.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>28</c:v>
@@ -682,7 +677,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1ACA-4CE0-961B-C21AF5868877}"/>
+              <c16:uniqueId val="{00000001-DCE1-4EB7-A6D3-4DD8A9F2862C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -695,11 +690,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="759539104"/>
+        <c:axId val="1092661871"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="759539104"/>
+        <c:axId val="1092661871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +763,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="759539104"/>
+        <c:crossAx val="1092661871"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -796,7 +791,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{79C718AA-CD0D-44A4-8131-ED9767F7C4A3}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{09B65791-DBBA-4813-8F02-532FC1938DE0}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
@@ -818,7 +813,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{531F3ABB-8531-A797-5C37-C2B7FEB2539D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB66DB14-3B02-E9AB-4F8B-FCF40C315C05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -842,7 +837,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Angel Garcia" refreshedDate="45626.075341782409" createdVersion="8" refreshedVersion="8" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{FB0D8B4F-4A8A-487A-A2BA-D71C8B1FA100}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Angel Garcia" refreshedDate="45626.74578125" createdVersion="8" refreshedVersion="8" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{70881470-FF34-46BC-9C63-B34F614B7DA1}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="48">
     <cacheField name="[Measures].[Trabajo previsto]" caption="Trabajo previsto" numFmtId="0" hierarchy="76"/>
@@ -1141,7 +1136,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A626078A-F1D0-480E-B505-74F91E6C6BAA}" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Datos" grandTotalCaption="Total General" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1854848-6449-4505-9348-DA7BC9498391}" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Datos" grandTotalCaption="Total General" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1" fieldListSortAscending="1">
   <location ref="A3:E19" firstHeaderRow="1" firstDataRow="2" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="48">
     <pivotField name="Trabajo previsto" dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -1739,7 +1734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8183A330-9F03-4ED4-95F4-5974FE98E584}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49BA64D-7B72-441F-A8F3-4E80DBB3AB8C}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1752,7 +1747,8 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="256" width="9.140625" customWidth="1"/>
   </cols>
@@ -1911,7 +1907,7 @@
         <v>102.25</v>
       </c>
       <c r="E13" s="11">
-        <v>33.5</v>
+        <v>38.166666666666664</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1963,7 +1959,7 @@
         <v>552</v>
       </c>
       <c r="E17" s="7">
-        <v>242.38095238095238</v>
+        <v>247.04761904761904</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1976,7 +1972,7 @@
         <v>552</v>
       </c>
       <c r="E18" s="7">
-        <v>242.38095238095238</v>
+        <v>247.04761904761904</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1989,7 +1985,7 @@
         <v>552</v>
       </c>
       <c r="E19" s="15">
-        <v>242.38095238095238</v>
+        <v>247.04761904761904</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Iteración 3/MS Project/Seguimiento del Cronograma del Sprint 3.xlsx
+++ b/Docs/Iteración 3/MS Project/Seguimiento del Cronograma del Sprint 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\Universidad\4º AÑO\PGPI-G1.15\Docs\Iteración 3\MS Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73015F7A-427A-4607-B817-3F22BDE2AB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF06EBC7-11E2-4C28-A18C-DE7686227268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17E43B56-CF80-4EBC-B759-65557F6CE0BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20C61F42-4A61-4C34-8B2C-DD0851B87B44}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{DB6075DC-959A-44F2-97D4-EFB3658053E1}" sourceFile="D:\Documents and Settings\PKMACCT\My Documents\Assignment Usage.cub" keepAlive="1" name="Assignment Usage" type="5" refreshedVersion="8">
+  <connection id="1" xr16:uid="{2A51B016-4084-470D-8F14-AE9E4302C7FC}" sourceFile="D:\Documents and Settings\PKMACCT\My Documents\Assignment Usage.cub" keepAlive="1" name="Assignment Usage" type="5" refreshedVersion="8">
     <dbPr connection="Provider=MSOLAP.2;Persist Security Info=True;Data Source=D:\Documents and Settings\PKMACCT\My Documents\Assignment Usage.cub;Client Cache Size=25;Auto Synch Period=10000" command="ProjectReport" commandType="1"/>
-    <olapPr local="1" localConnection="Provider=MSOLAP.8;Persist Security Info=True;Data Source=C:\Users\angel\AppData\Local\Temp\VisualReportsTemporaryData\{cab2faa7-3baf-ef11-905f-c38c60dbbcf3}\AssignmentTP.cub;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" rowDrillCount="1000" serverFill="0" serverNumberFormat="0" serverFont="0" serverFontColor="0"/>
+    <olapPr local="1" localConnection="Provider=MSOLAP.8;Persist Security Info=True;Data Source=C:\Users\angel\AppData\Local\Temp\VisualReportsTemporaryData\{563a7aeb-97b1-ef11-9061-9b9808f6d72a}\AssignmentTP.cub;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" rowDrillCount="1000" serverFill="0" serverNumberFormat="0" serverFont="0" serverFontColor="0"/>
   </connection>
 </connections>
 </file>
@@ -107,6 +107,12 @@
     <t>Semana</t>
   </si>
   <si>
+    <t>Semana 40</t>
+  </si>
+  <si>
+    <t>Total T3</t>
+  </si>
+  <si>
     <t>Semana 41</t>
   </si>
   <si>
@@ -138,12 +144,6 @@
   </si>
   <si>
     <t>Total T4</t>
-  </si>
-  <si>
-    <t>Semana 40</t>
-  </si>
-  <si>
-    <t>Total T3</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DCE1-4EB7-A6D3-4DD8A9F2862C}"/>
+              <c16:uniqueId val="{00000000-1F78-426B-A89D-6FDD4281EDE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -661,7 +661,7 @@
                   <c:v>28.916666666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.166666666666664</c:v>
+                  <c:v>44.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>28</c:v>
@@ -677,7 +677,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DCE1-4EB7-A6D3-4DD8A9F2862C}"/>
+              <c16:uniqueId val="{00000001-1F78-426B-A89D-6FDD4281EDE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -690,11 +690,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1092661871"/>
+        <c:axId val="802024800"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1092661871"/>
+        <c:axId val="802024800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -763,7 +763,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1092661871"/>
+        <c:crossAx val="802024800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -791,7 +791,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{09B65791-DBBA-4813-8F02-532FC1938DE0}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B6B98C48-B6FE-4743-B9A6-D8954EC5CF4A}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
@@ -813,7 +813,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB66DB14-3B02-E9AB-4F8B-FCF40C315C05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E06E27-E1E1-88E4-9DC0-ED5EC63A20D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -837,7 +837,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Angel Garcia" refreshedDate="45626.74578125" createdVersion="8" refreshedVersion="8" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{70881470-FF34-46BC-9C63-B34F614B7DA1}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Angel Garcia" refreshedDate="45629.749618981485" createdVersion="8" refreshedVersion="8" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1DD93027-AF90-4C47-AC4B-E9664349FE71}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="48">
     <cacheField name="[Measures].[Trabajo previsto]" caption="Trabajo previsto" numFmtId="0" hierarchy="76"/>
@@ -1136,7 +1136,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1854848-6449-4505-9348-DA7BC9498391}" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Datos" grandTotalCaption="Total General" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E70F0028-4ED3-4846-A34F-2FF0CEB7AD03}" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Datos" grandTotalCaption="Total General" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1" fieldListSortAscending="1">
   <location ref="A3:E19" firstHeaderRow="1" firstDataRow="2" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="48">
     <pivotField name="Trabajo previsto" dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -1734,11 +1734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49BA64D-7B72-441F-A8F3-4E80DBB3AB8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC9AC9A-B328-4E87-BA94-6B24D8B3AE2D}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1747,8 +1747,7 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="256" width="9.140625" customWidth="1"/>
   </cols>
@@ -1795,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
@@ -1807,7 +1806,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="6">
@@ -1823,7 +1822,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -1836,7 +1835,7 @@
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -1849,7 +1848,7 @@
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="10">
         <v>55</v>
@@ -1862,7 +1861,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="10">
         <v>22</v>
@@ -1875,7 +1874,7 @@
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="10">
         <v>46</v>
@@ -1888,7 +1887,7 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" s="10">
         <v>68</v>
@@ -1901,20 +1900,20 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13" s="10">
         <v>102.25</v>
       </c>
       <c r="E13" s="11">
-        <v>38.166666666666664</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" s="10">
         <v>81.75</v>
@@ -1927,7 +1926,7 @@
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15" s="10">
         <v>158</v>
@@ -1940,7 +1939,7 @@
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" s="10">
         <v>19</v>
@@ -1952,14 +1951,14 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="6">
         <v>552</v>
       </c>
       <c r="E17" s="7">
-        <v>247.04761904761904</v>
+        <v>253.38095238095238</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1972,7 +1971,7 @@
         <v>552</v>
       </c>
       <c r="E18" s="7">
-        <v>247.04761904761904</v>
+        <v>253.38095238095238</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1985,7 +1984,7 @@
         <v>552</v>
       </c>
       <c r="E19" s="15">
-        <v>247.04761904761904</v>
+        <v>253.38095238095238</v>
       </c>
     </row>
   </sheetData>
